--- a/modelofisico.xlsx
+++ b/modelofisico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INSTITUTO\Documents\Curso_BD_Turma1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_BD_Turma1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>Pessoa</t>
   </si>
@@ -174,6 +174,189 @@
   </si>
   <si>
     <t>cod_cnh</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>VEICULO</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>ALUGUEL</t>
+  </si>
+  <si>
+    <t>cod_empresa</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>cod_veic</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>cod_marca</t>
+  </si>
+  <si>
+    <t>nome_marca</t>
+  </si>
+  <si>
+    <t>cod_modelo</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>fsh0101</t>
+  </si>
+  <si>
+    <t>nomeMod</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>cod_cliente</t>
+  </si>
+  <si>
+    <t>nome_cliente</t>
+  </si>
+  <si>
+    <t>cpf_cliente</t>
+  </si>
+  <si>
+    <t>cod_aluguel</t>
+  </si>
+  <si>
+    <t>dataRetirada</t>
+  </si>
+  <si>
+    <t>dataDevolucao</t>
+  </si>
+  <si>
+    <t>CLINICA</t>
+  </si>
+  <si>
+    <t>idClinica</t>
+  </si>
+  <si>
+    <t>NomeClinica</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>PortoPet</t>
+  </si>
+  <si>
+    <t>rua a porto</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>idPet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome </t>
+  </si>
+  <si>
+    <t>DataNascimento</t>
+  </si>
+  <si>
+    <t>TipoPet</t>
+  </si>
+  <si>
+    <t>idTipoPet</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>PAPAGAIO</t>
+  </si>
+  <si>
+    <t>RAÇAS</t>
+  </si>
+  <si>
+    <t>idRaca</t>
+  </si>
+  <si>
+    <t>Poodle</t>
+  </si>
+  <si>
+    <t>id_TipoPet</t>
+  </si>
+  <si>
+    <t>Ze Carioca</t>
+  </si>
+  <si>
+    <t>id_raca</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>DONOS</t>
+  </si>
+  <si>
+    <t>IdDono</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>id_dono</t>
+  </si>
+  <si>
+    <t>VETERINARIOS</t>
+  </si>
+  <si>
+    <t>idVeterinario</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>ATENDIMENTOS</t>
+  </si>
+  <si>
+    <t>idAtendimento</t>
+  </si>
+  <si>
+    <t>IdPet</t>
+  </si>
+  <si>
+    <t>IdVeterinario</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>DataAtendimento</t>
+  </si>
+  <si>
+    <t>DOG TA OK</t>
   </si>
 </sst>
 </file>
@@ -688,20 +871,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J45"/>
+  <dimension ref="B3:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
         <v>1</v>
       </c>
@@ -1052,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <v>2</v>
       </c>
@@ -1060,14 +1247,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18">
+        <v>234</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24">
+        <v>42279</v>
+      </c>
       <c r="F38" s="15" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F39" s="17">
         <v>1</v>
       </c>
@@ -1089,41 +1308,440 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F45" s="17">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>234</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1</v>
-      </c>
-      <c r="I45" s="24">
-        <v>42279</v>
-      </c>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="G44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="F52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="17">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18">
+        <v>2023</v>
+      </c>
+      <c r="J54" s="22">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
+        <v>1</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="22">
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="H66" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="17">
+        <v>1</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="22">
+        <v>123123</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="15">
+        <v>2</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
+      <c r="H70" s="17">
+        <v>3</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="15">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="11">
+        <v>45061</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="22"/>
+      <c r="H73" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="H74" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="H76" s="15">
+        <v>2</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J76" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="17">
+        <v>1</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="F81" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="15">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="21">
+        <v>1</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="11">
+        <v>45029</v>
+      </c>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="15"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="21"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="22"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
